--- a/examples/384_well_simple.xlsx
+++ b/examples/384_well_simple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholas/Code/plate-chain/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abelgurung/Desktop/project/microplateParser/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C4DD8C-8753-0549-BA2D-80B98FE733AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE19FE2E-5683-2B4F-82D9-CD37DB5B3363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37560" yWindow="2560" windowWidth="28040" windowHeight="17440" xr2:uid="{57F97038-01F2-AB4E-87CA-8245C61FFD1A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19460" xr2:uid="{57F97038-01F2-AB4E-87CA-8245C61FFD1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="40">
   <si>
     <t>A</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>SB-024</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -521,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDA4622-CEC1-FC48-85A1-10F32F294C12}">
-  <dimension ref="A2:Y16"/>
+  <dimension ref="A2:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1682,6 +1688,160 @@
         <v>37</v>
       </c>
     </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>29</v>
+      </c>
+      <c r="R17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V17" t="s">
+        <v>34</v>
+      </c>
+      <c r="W17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" t="s">
+        <v>30</v>
+      </c>
+      <c r="S18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V18" t="s">
+        <v>34</v>
+      </c>
+      <c r="W18" t="s">
+        <v>35</v>
+      </c>
+      <c r="X18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
